--- a/Barabanca/src/test/resources/supertrend-parsed-results/supertrendWithRsiParsedResults_v1.xlsx
+++ b/Barabanca/src/test/resources/supertrend-parsed-results/supertrendWithRsiParsedResults_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Vizerium\java_workspace\git\vizerium\Barabanca\src\test\resources\supertrend-parsed-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDD674-ADC6-427C-B671-C5DB9FFD1D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DDC6B7-5B87-44C0-979E-66AABF77EF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9888" yWindow="4548" windowWidth="11928" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supertrendWithRsiParsedResults_" sheetId="1" r:id="rId1"/>
@@ -1384,13 +1384,13 @@
   <dimension ref="A1:W145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
@@ -3185,7 +3185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>102</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>170</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>170</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>170</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>170</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>170</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>170</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>170</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>170</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>170</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>170</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>170</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -11714,7 +11714,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="1hour"/>
+        <filter val="15min"/>
       </filters>
     </filterColumn>
   </autoFilter>
